--- a/myapp/files/9_MethodComparePercent/Scenario 333.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 333.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1686</v>
+        <v>7307</v>
       </c>
       <c r="F2" t="n">
-        <v>2.36339678712608</v>
+        <v>1.11663289413764</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>4.44444444444444</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>224</v>
+        <v>11832</v>
       </c>
       <c r="F3" t="n">
-        <v>0.313998149653761</v>
+        <v>1.80812924639887</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22222222222222</v>
+        <v>2.20588235294118</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1836</v>
+        <v>22956</v>
       </c>
       <c r="F4" t="n">
-        <v>2.57366340519779</v>
+        <v>3.50806414641079</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>4.44444444444444</v>
+        <v>4.04411764705882</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4149</v>
+        <v>30159</v>
       </c>
       <c r="F5" t="n">
-        <v>5.81597465586364</v>
+        <v>4.60880408571193</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>6.15384615384615</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>8.88888888888889</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4598</v>
+        <v>25010</v>
       </c>
       <c r="F6" t="n">
-        <v>6.44537273262497</v>
+        <v>3.82195000443169</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>4.44444444444444</v>
+        <v>4.77941176470588</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6411</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.979708975546244</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3370</v>
+        <v>24397</v>
       </c>
       <c r="F8" t="n">
-        <v>4.72399001934453</v>
+        <v>3.72827326102039</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>4.44444444444444</v>
+        <v>3.67647058823529</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>374</v>
+        <v>46431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.524264767725476</v>
+        <v>7.09544025013066</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22222222222222</v>
+        <v>8.08823529411765</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1575</v>
+        <v>74748</v>
       </c>
       <c r="F10" t="n">
-        <v>2.20779948975301</v>
+        <v>11.4227556549884</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22222222222222</v>
+        <v>11.3970588235294</v>
       </c>
       <c r="K10" t="n">
         <v>11</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>405</v>
+        <v>50844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.56771986879363</v>
+        <v>7.76982111256797</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -935,10 +935,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>2.22222222222222</v>
+        <v>8.82352941176471</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10093</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.54238070350776</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26284</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.01663870117883</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>4908</v>
+        <v>60712</v>
       </c>
       <c r="F14" t="n">
-        <v>6.87992374330651</v>
+        <v>9.27781801955445</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>10.7692307692308</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>8.88888888888889</v>
+        <v>8.08823529411765</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>10238</v>
+        <v>76843</v>
       </c>
       <c r="F15" t="n">
-        <v>14.3513975721215</v>
+        <v>11.7429070048198</v>
       </c>
       <c r="G15" t="n">
         <v>20</v>
@@ -1087,16 +1087,16 @@
         <v>30.7692307692308</v>
       </c>
       <c r="I15" t="n">
+        <v>33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.1323529411765</v>
+      </c>
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
       <c r="L15" t="n">
-        <v>16.9230769230769</v>
+        <v>15.3846153846154</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>14228</v>
+        <v>56449</v>
       </c>
       <c r="F16" t="n">
-        <v>19.9444896128291</v>
+        <v>8.62635968813133</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>15.5555555555556</v>
+        <v>8.45588235294118</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>3996</v>
+        <v>10056</v>
       </c>
       <c r="F17" t="n">
-        <v>5.60150270543049</v>
+        <v>1.53672647919093</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.44444444444444</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>4860</v>
+        <v>21406</v>
       </c>
       <c r="F18" t="n">
-        <v>6.81263842552356</v>
+        <v>3.27119799259755</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.22222222222222</v>
+        <v>2.20588235294118</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5418</v>
+        <v>29661</v>
       </c>
       <c r="F19" t="n">
-        <v>7.59483024475034</v>
+        <v>4.53270128274484</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>9.23076923076923</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>4.44444444444444</v>
+        <v>3.30882352941176</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5573</v>
+        <v>22616</v>
       </c>
       <c r="F20" t="n">
-        <v>7.81210575009112</v>
+        <v>3.45610640944531</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1277,10 +1277,10 @@
         <v>10.7692307692308</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>4.44444444444444</v>
+        <v>3.67647058823529</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3900</v>
+        <v>11077</v>
       </c>
       <c r="F21" t="n">
-        <v>5.46693206986459</v>
+        <v>1.69275250696081</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.22222222222222</v>
+        <v>2.57352941176471</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.476788645095037</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.367647058823529</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.981084327407095</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.23781667476596</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7420</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.13390120083499</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4026</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.615240732420711</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
